--- a/procurement_export_ntp.xlsx
+++ b/procurement_export_ntp.xlsx
@@ -20,21 +20,19 @@
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
-    <t>#94 P. Paterno St. Brgy. Dela Paz, BiÃ±an City, Laguna.
-BiÃ±an
-Laguna</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Ms. Maria Lanlet Cajipe Arzola</t>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>Blk 14 lot 14 Czandra Homes Banlic Calamba City Laguna</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. Rommel Cordeno Penaflor</t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">1-Air Master Enterprise, Inc. that the Procurement of Catering Services for the LOREM IPSUM shall commence upon receipt of the Notice to Proceed. </t>
+    <t xml:space="preserve">ASR Computer Trading and Services that the Procurement of Supplies, Materials and Devices for the Purchase of ICT Equipment for the Conference Room shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -61,7 +59,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    Ms. Maria Lanlet Cajipe Arzola</t>
+    <t xml:space="preserve">                                    Rommel Cordeno Penaflor</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/procurement_export_ntp.xlsx
+++ b/procurement_export_ntp.xlsx
@@ -15,24 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>2022-03-24</t>
-  </si>
-  <si>
-    <t>Blk 14 lot 14 Czandra Homes Banlic Calamba City Laguna</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Rommel Cordeno Penaflor</t>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>Glee Star Enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glee Star Enterprises
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 Centennial II Extension St., Pinagbuhatan, Pasig City
+</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. Glee Star Enterprises</t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">ASR Computer Trading and Services that the Procurement of Supplies, Materials and Devices for the Purchase of ICT Equipment for the Conference Room shall commence upon receipt of the Notice to Proceed. </t>
+    <t xml:space="preserve">Glee Star Enterprises
+ that the Procurement of Supplies, Materials and Devices for the LOREM IPSUM shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -59,7 +68,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    Rommel Cordeno Penaflor</t>
+    <t xml:space="preserve">                                    Glee Star Enterprises</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -523,29 +532,33 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9" customHeight="1" ht="41.4">
       <c r="A23" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -559,32 +572,32 @@
     <row r="24" spans="1:9" hidden="true"/>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -592,24 +605,24 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
